--- a/Test_Report.xlsx
+++ b/Test_Report.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\showoff_interview\postman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54189DB2-DF60-408B-A513-BEDFE80444AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4C4FB-6461-4F30-9432-C61CAE0588E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Test Summary Report</t>
   </si>
@@ -88,13 +96,16 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +113,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +165,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,15 +217,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,15 +289,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7A9CD4"/>
+      <color rgb="FFA0CD85"/>
+      <color rgb="FFFAA19A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,6 +336,1014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test run summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40404155730533686"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7A9CD4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A0CD85"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-44E6-42A0-B89D-8C022283CEAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FAA19A"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-44E6-42A0-B89D-8C022283CEAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Total</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Pass</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Fail</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$13,Sheet1!$F$13,Sheet1!$G$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-44E6-42A0-B89D-8C022283CEAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="791255600"/>
+        <c:axId val="873783552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="791255600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873783552"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="873783552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791255600"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CACE5C-B95D-471E-9C73-3E79067A53FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +1612,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,59 +1624,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -546,66 +1690,139 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3">
+        <f>E8-G8</f>
+        <v>67</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D9" s="3">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3">
+        <f>E9-G9</f>
+        <v>31</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13">
+        <v>61</v>
+      </c>
+      <c r="F10" s="13">
+        <f>E10-G10</f>
+        <v>50</v>
+      </c>
+      <c r="G10" s="13">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20">
+        <f>SUM(D8:D12)</f>
+        <v>59</v>
+      </c>
+      <c r="E13" s="21">
+        <f>SUM(E8:E12)</f>
+        <v>178</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(F8:F12)</f>
+        <v>148</v>
+      </c>
+      <c r="G13" s="8">
+        <f>SUM(G8:G12)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -617,11 +1834,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_Report.xlsx
+++ b/Test_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\showoff_interview\postman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4C4FB-6461-4F30-9432-C61CAE0588E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC530E-B68E-4FE4-B988-199B631DCBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="146">
   <si>
     <t>Test Summary Report</t>
   </si>
@@ -80,9 +80,6 @@
     <t>/api/v1/users/me</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Scenarios</t>
   </si>
   <si>
@@ -99,6 +96,381 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Scenaros</t>
+  </si>
+  <si>
+    <t>Validate that a new user with valid details can be created</t>
+  </si>
+  <si>
+    <t>Validate that existing user cannot be created</t>
+  </si>
+  <si>
+    <t>Validate that a user cannot be created with invalid email (email without domain sufix eg test@test)</t>
+  </si>
+  <si>
+    <t>Validate that a user cannot be created with invalid email (email without domain eg: test)</t>
+  </si>
+  <si>
+    <t>Validate that a user cannot be created with blank email</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with password less than 6 character</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with password equal to 6 character</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with password blank password</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with invalid_client_id</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with invalid_client_secret</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with blank_client_id</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with blank_client_secret</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with blank_first_name</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with blank_last_name</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with invalid_image_url</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with blank_image_url</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with first_name_one_char</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with last_name_one_char</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_imageurl_missing</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with client_firstname_as_non_string</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with client_lastname_as_non_string</t>
+  </si>
+  <si>
+    <t>Validate that user can be created with client_password_as_non_string</t>
+  </si>
+  <si>
+    <t>endpoint:/api/v1/users</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>endpoint:/oauth/token</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for non_existing_user</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  invalid_email_missing_domain_name</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  invalid_email_missing_domain_suffix</t>
+  </si>
+  <si>
+    <t>Validate that token is generated for  user_exists</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  blank_email</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  wrong_password</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for blank_password</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  invalid_client_id</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  invalid_client_secret</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for blank_client_id</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for blank_client_secret</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for invalid_type</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for blank_type</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for type_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for client_id_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for client_secret_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for client_email_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that token is not generated for  password_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_id_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_secret_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_firstname_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_lastname_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_password_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_email_field_value_null (no value provided)</t>
+  </si>
+  <si>
+    <t>Validate that user cannot be created with client_imageurl_non_string</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated with  invalid_token</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated with  revoked_token</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated with  invalid_date_of_Birth(string)</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated with  invalid_date_of_Birth(number)</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated with  firstname_value_missing</t>
+  </si>
+  <si>
+    <t>Validate that user details cannot be updated for unauthorised_userid_endpoint</t>
+  </si>
+  <si>
+    <t>Validate that user details can be updated with valid_details (using id)</t>
+  </si>
+  <si>
+    <t>Validate that user details can be updated with valid_details  valid_details(using me=? endpoint)</t>
+  </si>
+  <si>
+    <t>endpoint:/api/v1/users/me?= or /api/v1/users/1042</t>
+  </si>
+  <si>
+    <t>endpoint:/oauth/revoke</t>
+  </si>
+  <si>
+    <t>Validate that user details can be updated  if token when revoked using invalid token</t>
+  </si>
+  <si>
+    <t>Validate that user details can be updated if incorrect token was revoked</t>
+  </si>
+  <si>
+    <t>endpoint:/api/v1/users/me</t>
+  </si>
+  <si>
+    <t>Validate that token can be revoked using valid token</t>
+  </si>
+  <si>
+    <t>Validate that token cannot be revoked using invalid_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that system throws proper error if user tries to revoke unauthorized token </t>
+  </si>
+  <si>
+    <t>Validate that update information is reflected when updated with valid_details (using id)</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with invalid_token</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with revoked_token</t>
+  </si>
+  <si>
+    <t>Validate that update information is reflected  if  token used was attemped to be revoked using invalid token</t>
+  </si>
+  <si>
+    <t>Validate that update information is reflected when updated if incorrect token was revoked</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with  invalid_date_of_Birth(string)</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with invalid_date_of_Birth(number)</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with firstname_value_missing</t>
+  </si>
+  <si>
+    <t>Validate that update information is not reflected when updated with unauthorised_userid_endpoint</t>
+  </si>
+  <si>
+    <t>Validate that update information is reflected when updated with valid_details(using me=? endpoint)</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Schema is valid</t>
+  </si>
+  <si>
+    <t>Status is 200</t>
+  </si>
+  <si>
+    <t>Json response contains the updated values</t>
+  </si>
+  <si>
+    <t>Json response does contains the updated values</t>
+  </si>
+  <si>
+    <t>Json response does not contains the updated values</t>
+  </si>
+  <si>
+    <t>Got updated even though update endpoint throwed 500</t>
+  </si>
+  <si>
+    <t>Status is 401</t>
+  </si>
+  <si>
+    <t>Json response contains unauthorised message</t>
+  </si>
+  <si>
+    <t>Json response does  contains the updated values</t>
+  </si>
+  <si>
+    <t>Json response conatins success</t>
+  </si>
+  <si>
+    <t>Json response does  contains unauthorized message</t>
+  </si>
+  <si>
+    <t>Returned 422</t>
+  </si>
+  <si>
+    <t>Message was "Invalid Token "</t>
+  </si>
+  <si>
+    <t>Returned 500</t>
+  </si>
+  <si>
+    <t>User was Updated</t>
+  </si>
+  <si>
+    <t>Json response does  contains the "success" message</t>
+  </si>
+  <si>
+    <t>Json response does  contains the message "session expired"</t>
+  </si>
+  <si>
+    <t>Status is 422</t>
+  </si>
+  <si>
+    <t>Json response does  contains the message "invalid date"</t>
+  </si>
+  <si>
+    <t>Returned 200</t>
+  </si>
+  <si>
+    <t>Returned "Success"</t>
+  </si>
+  <si>
+    <t>Status is 400</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Session expired"</t>
+  </si>
+  <si>
+    <t>Json response does  contains " error logging in"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Success"</t>
+  </si>
+  <si>
+    <t>Returned "Error logging in"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Session timedout"</t>
+  </si>
+  <si>
+    <t>Json response does  contains " Type cannot be blank"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "A user with that email already exists"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Email is invalid"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Email cannot be blank"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Password is too short"</t>
+  </si>
+  <si>
+    <t>Message contains "min length is 8"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Password cannot be blank"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "Client is not authorized"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "firstname cannot be blank"</t>
+  </si>
+  <si>
+    <t>Json response does  contains "lastname cannot be blank"</t>
+  </si>
+  <si>
+    <t>Schema Failed as returned success</t>
+  </si>
+  <si>
+    <t>Returned success json</t>
+  </si>
+  <si>
+    <t>Observation/Comment</t>
+  </si>
+  <si>
+    <t>Should the error specify that clien_id and secret combination is wrong</t>
+  </si>
+  <si>
+    <t>Should the error specify that clien_id or  secret combination cannot be blank</t>
+  </si>
+  <si>
+    <t>Should there be validation for url</t>
+  </si>
+  <si>
+    <t>Should a response body stating a field is missing, should be provided ? Along with 400 status code (Applicable for all 400 scenarios)</t>
+  </si>
+  <si>
+    <t>Should error be more specific like in create user end point. Shoul response state why the logging is invalide eg invalid email, wrong password etc ( Applicable for all the scenarios for this end point)</t>
+  </si>
+  <si>
+    <t>Recommended to have date validation</t>
   </si>
 </sst>
 </file>
@@ -128,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +562,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +663,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,12 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -307,18 +700,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -431,10 +869,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
@@ -472,6 +910,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B050-4BA0-8341-8F42B4AB29DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -536,10 +979,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
@@ -610,6 +1053,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="873783552"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -668,6 +1112,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="791255600"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1310,15 +1755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>3314699</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1609,82 +2054,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1693,36 +2140,36 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="26">
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="26">
         <v>73</v>
       </c>
       <c r="F8" s="3">
@@ -1735,16 +2182,16 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="26">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="26">
         <v>44</v>
       </c>
       <c r="F9" s="3">
@@ -1757,94 +2204,2482 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="26">
         <v>10</v>
       </c>
-      <c r="E10" s="13">
-        <v>61</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="26">
+        <v>28</v>
+      </c>
+      <c r="F10" s="16">
         <f>E10-G10</f>
-        <v>50</v>
-      </c>
-      <c r="G10" s="13">
+        <v>17</v>
+      </c>
+      <c r="G10" s="16">
         <v>11</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="26">
+        <v>3</v>
+      </c>
+      <c r="E11" s="26">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="26">
+        <v>10</v>
+      </c>
+      <c r="E12" s="26">
+        <v>30</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="30">
         <f>SUM(D8:D12)</f>
-        <v>59</v>
-      </c>
-      <c r="E13" s="21">
+        <v>72</v>
+      </c>
+      <c r="E13" s="27">
         <f>SUM(E8:E12)</f>
-        <v>178</v>
-      </c>
-      <c r="F13" s="7">
+        <v>184</v>
+      </c>
+      <c r="F13" s="4">
         <f>SUM(F8:F12)</f>
-        <v>148</v>
-      </c>
-      <c r="G13" s="8">
+        <v>115</v>
+      </c>
+      <c r="G13" s="5">
         <f>SUM(G8:G12)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>121</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>101</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>124</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>100</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>101</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>100</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>101</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" s="20"/>
+      <c r="D165" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E165" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C167" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>100</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>123</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C172" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>100</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>124</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>123</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>123</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>100</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>123</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>100</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>123</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>100</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>117</v>
+      </c>
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>123</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>100</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>106</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>126</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C207" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>100</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>126</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C212" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>100</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>106</v>
+      </c>
+      <c r="D214" t="s">
+        <v>18</v>
+      </c>
+      <c r="E214" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>126</v>
+      </c>
+      <c r="D215" t="s">
+        <v>18</v>
+      </c>
+      <c r="E215" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C217" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>100</v>
+      </c>
+      <c r="D218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>106</v>
+      </c>
+      <c r="D219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>126</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>100</v>
+      </c>
+      <c r="D223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>117</v>
+      </c>
+      <c r="D224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>123</v>
+      </c>
+      <c r="D225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>100</v>
+      </c>
+      <c r="D228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>127</v>
+      </c>
+      <c r="D230" t="s">
+        <v>18</v>
+      </c>
+      <c r="E230" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C232" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>121</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C236" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>121</v>
+      </c>
+      <c r="D237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C239" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>121</v>
+      </c>
+      <c r="D240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C243" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>121</v>
+      </c>
+      <c r="D244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C247" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>121</v>
+      </c>
+      <c r="D248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C250" s="20"/>
+      <c r="D250" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E250" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C253" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>100</v>
+      </c>
+      <c r="D254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>101</v>
+      </c>
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>115</v>
+      </c>
+      <c r="D256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C258" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>100</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>116</v>
+      </c>
+      <c r="D261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C263" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>100</v>
+      </c>
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>106</v>
+      </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C268" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>100</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>101</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>115</v>
+      </c>
+      <c r="D271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C273" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>100</v>
+      </c>
+      <c r="D274" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>101</v>
+      </c>
+      <c r="D275" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>115</v>
+      </c>
+      <c r="D276" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C278" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>100</v>
+      </c>
+      <c r="D279" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>117</v>
+      </c>
+      <c r="D280" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>118</v>
+      </c>
+      <c r="D281" t="s">
+        <v>18</v>
+      </c>
+      <c r="E281" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C283" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>100</v>
+      </c>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>117</v>
+      </c>
+      <c r="D285" t="s">
+        <v>18</v>
+      </c>
+      <c r="E285" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>118</v>
+      </c>
+      <c r="D286" t="s">
+        <v>18</v>
+      </c>
+      <c r="E286" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C288" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>121</v>
+      </c>
+      <c r="D289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C292" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>100</v>
+      </c>
+      <c r="D293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>106</v>
+      </c>
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>122</v>
+      </c>
+      <c r="D295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C297" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>100</v>
+      </c>
+      <c r="D298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>101</v>
+      </c>
+      <c r="D299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>115</v>
+      </c>
+      <c r="D300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C302" s="20"/>
+      <c r="D302" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E302" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C305" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>100</v>
+      </c>
+      <c r="D306" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>101</v>
+      </c>
+      <c r="D307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>109</v>
+      </c>
+      <c r="D308" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C310" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>100</v>
+      </c>
+      <c r="D311" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>106</v>
+      </c>
+      <c r="D312" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>110</v>
+      </c>
+      <c r="D313" t="s">
+        <v>18</v>
+      </c>
+      <c r="E313" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C315" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>100</v>
+      </c>
+      <c r="D316" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>101</v>
+      </c>
+      <c r="D317" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>108</v>
+      </c>
+      <c r="D318" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C320" s="20"/>
+      <c r="D320" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E320" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C323" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>100</v>
+      </c>
+      <c r="D324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>101</v>
+      </c>
+      <c r="D325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>108</v>
+      </c>
+      <c r="D326" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C328" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>100</v>
+      </c>
+      <c r="D329" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>106</v>
+      </c>
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>107</v>
+      </c>
+      <c r="D331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C333" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>100</v>
+      </c>
+      <c r="D334" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>106</v>
+      </c>
+      <c r="D335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>107</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C338" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>100</v>
+      </c>
+      <c r="D339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>101</v>
+      </c>
+      <c r="D340" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>103</v>
+      </c>
+      <c r="D341" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C343" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>100</v>
+      </c>
+      <c r="D344" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>101</v>
+      </c>
+      <c r="D345" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>103</v>
+      </c>
+      <c r="D346" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C348" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>100</v>
+      </c>
+      <c r="D349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>101</v>
+      </c>
+      <c r="D350" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>104</v>
+      </c>
+      <c r="D351" t="s">
+        <v>18</v>
+      </c>
+      <c r="E351" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C353" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>100</v>
+      </c>
+      <c r="D354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>101</v>
+      </c>
+      <c r="D355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>104</v>
+      </c>
+      <c r="D356" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C358" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>100</v>
+      </c>
+      <c r="D359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>101</v>
+      </c>
+      <c r="D360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>104</v>
+      </c>
+      <c r="D361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C363" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>100</v>
+      </c>
+      <c r="D364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>101</v>
+      </c>
+      <c r="D365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>104</v>
+      </c>
+      <c r="D366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C368" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>100</v>
+      </c>
+      <c r="D369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>101</v>
+      </c>
+      <c r="D370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>102</v>
+      </c>
+      <c r="D371" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D6 D14:D1048576 C7:C13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>